--- a/slides/br_transfer_1979_1985.xlsx
+++ b/slides/br_transfer_1979_1985.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -119,28 +119,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B971"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.74"/>
@@ -151,8 +151,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="11" style="1" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="28" style="1" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="28" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
